--- a/files/items.xlsx
+++ b/files/items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gamedesign\垃圾\正式表格\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bytedance/code/back_end/trash_be/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956DAF97-D9B2-4902-8375-A6CEEE86346D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2DE526-05B9-9F4A-916B-9F69D049E188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29000" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物品表" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="182">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -750,14 +750,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>忽略</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>轮毂</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -811,22 +803,6 @@
   </si>
   <si>
     <t>拾取物5%概率提升品阶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>trash-1313022522/items/tools/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>trash-1313022522/items/tools/1001001.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>trash-1313022522/items/parts/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>trash-1313022522/items/toys/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -834,7 +810,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -907,7 +883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -919,9 +895,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -1208,33 +1181,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R76"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.6640625" style="1"/>
-    <col min="2" max="2" width="14.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.06640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.53125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="36.46484375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="31.86328125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.53125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="47.86328125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="9.6640625" style="1"/>
-    <col min="15" max="17" width="9.06640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.1328125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.6640625" style="1"/>
+    <col min="6" max="6" width="25.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="36.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="47.83203125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="9.6640625" style="1"/>
+    <col min="13" max="15" width="9" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1640625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1263,34 +1234,28 @@
         <v>77</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="R1" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>1001001</v>
       </c>
@@ -1318,32 +1283,26 @@
       <c r="I2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="J2" s="1">
+        <v>1001001</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
         <v>1</v>
       </c>
       <c r="N2" s="1">
         <v>1</v>
       </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
       <c r="P2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1001002</v>
       </c>
@@ -1371,33 +1330,23 @@
       <c r="I3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L3" s="4" t="str">
-        <f>J3&amp;A3&amp;K3</f>
-        <v>trash-1313022522/items/tools/1001002.png</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2</v>
       </c>
       <c r="N3" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>1001003</v>
       </c>
@@ -1425,33 +1374,24 @@
       <c r="I4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L4" s="4" t="str">
-        <f t="shared" ref="L4:L9" si="0">J4&amp;A4&amp;K4</f>
-        <v>trash-1313022522/items/tools/1001003.png</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1</v>
+      <c r="J4" s="4"/>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3</v>
       </c>
       <c r="N4" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1</v>
-      </c>
-      <c r="R4" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>1001004</v>
       </c>
@@ -1479,303 +1419,249 @@
       <c r="I5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>trash-1313022522/items/tools/1001004.png</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
+      <c r="J5" s="4"/>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4</v>
       </c>
       <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1">
+        <v>1001005</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1">
+        <v>1002001</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1">
+        <v>1002002</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1">
+        <v>1002003</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1">
+        <v>1002004</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
         <v>4</v>
       </c>
-      <c r="P5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
-      <c r="R5" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="5">
-        <v>1001005</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="5">
-        <v>-1</v>
-      </c>
-      <c r="H6" s="5">
-        <v>-1</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="L6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>trash-1313022522/items/tools/1001005.png</v>
-      </c>
-      <c r="M6" s="5">
-        <v>1</v>
-      </c>
-      <c r="N6" s="5">
-        <v>5</v>
-      </c>
-      <c r="P6" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>1</v>
-      </c>
-      <c r="R6" s="5">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="5">
-        <v>1002001</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="5">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="5">
-        <v>-1</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="L7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>trash-1313022522/items/tools/1002001.png</v>
-      </c>
-      <c r="M7" s="5">
-        <v>1</v>
-      </c>
-      <c r="N7" s="5">
-        <v>1</v>
-      </c>
-      <c r="P7" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>1</v>
-      </c>
-      <c r="R7" s="5">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5">
-        <v>1002002</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="5">
-        <v>-1</v>
-      </c>
-      <c r="H8" s="5">
-        <v>-1</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="L8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>trash-1313022522/items/tools/1002002.png</v>
-      </c>
-      <c r="M8" s="5">
-        <v>1</v>
-      </c>
-      <c r="N8" s="5">
-        <v>2</v>
-      </c>
-      <c r="P8" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>1</v>
-      </c>
-      <c r="R8" s="5">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="5">
-        <v>1002003</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="5">
-        <v>-1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>-1</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>J9&amp;A9&amp;K9</f>
-        <v>trash-1313022522/items/tools/1002003.png</v>
-      </c>
-      <c r="M9" s="5">
-        <v>1</v>
-      </c>
-      <c r="N9" s="5">
-        <v>3</v>
-      </c>
-      <c r="P9" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>1</v>
-      </c>
-      <c r="R9" s="5">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5">
-        <v>1002004</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="5">
-        <v>-1</v>
-      </c>
-      <c r="H10" s="5">
-        <v>-1</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="L10" s="6" t="str">
-        <f>J10&amp;A10&amp;K10</f>
-        <v>trash-1313022522/items/tools/1002004.png</v>
-      </c>
-      <c r="M10" s="5">
-        <v>1</v>
-      </c>
-      <c r="N10" s="5">
-        <v>4</v>
-      </c>
-      <c r="P10" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>1</v>
-      </c>
-      <c r="R10" s="5">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="3" customFormat="1">
       <c r="A11" s="3">
         <v>1002005</v>
       </c>
@@ -1800,24 +1686,24 @@
       <c r="I11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="3">
-        <v>1</v>
+      <c r="J11" s="5"/>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>5</v>
       </c>
       <c r="N11" s="3">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
       </c>
       <c r="P11" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>1</v>
-      </c>
-      <c r="R11" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="3" customFormat="1">
       <c r="A12" s="3">
         <v>1003001</v>
       </c>
@@ -1842,24 +1728,24 @@
       <c r="I12" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="3">
+      <c r="J12" s="5"/>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
         <v>1</v>
       </c>
       <c r="N12" s="3">
         <v>1</v>
       </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
       <c r="P12" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1</v>
-      </c>
-      <c r="R12" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="3" customFormat="1">
       <c r="A13" s="3">
         <v>1003002</v>
       </c>
@@ -1884,24 +1770,24 @@
       <c r="I13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="3">
-        <v>1</v>
+      <c r="J13" s="5"/>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2</v>
       </c>
       <c r="N13" s="3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
       </c>
       <c r="P13" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>1</v>
-      </c>
-      <c r="R13" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="3" customFormat="1">
       <c r="A14" s="3">
         <v>1003003</v>
       </c>
@@ -1926,24 +1812,24 @@
       <c r="I14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="3">
-        <v>1</v>
+      <c r="J14" s="5"/>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1</v>
       </c>
       <c r="P14" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1</v>
-      </c>
-      <c r="R14" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="3" customFormat="1">
       <c r="A15" s="3">
         <v>1003004</v>
       </c>
@@ -1968,24 +1854,24 @@
       <c r="I15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="3">
-        <v>1</v>
+      <c r="J15" s="5"/>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
       </c>
       <c r="P15" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>1</v>
-      </c>
-      <c r="R15" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="3" customFormat="1">
       <c r="A16" s="3">
         <v>1003005</v>
       </c>
@@ -2010,24 +1896,24 @@
       <c r="I16" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="3">
-        <v>1</v>
+      <c r="J16" s="5"/>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3">
+        <v>5</v>
       </c>
       <c r="N16" s="3">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1</v>
       </c>
       <c r="P16" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>1</v>
-      </c>
-      <c r="R16" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>1004001</v>
       </c>
@@ -2052,33 +1938,24 @@
       <c r="I17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="L17" s="6" t="str">
-        <f t="shared" ref="L17:L76" si="1">J17&amp;A17&amp;K17</f>
-        <v>trash-1313022522/items/tools/1004001.png</v>
-      </c>
-      <c r="M17" s="1">
+      <c r="J17" s="5"/>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
         <v>1</v>
       </c>
       <c r="N17" s="1">
         <v>1</v>
       </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
       <c r="P17" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>1</v>
-      </c>
-      <c r="R17" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="3" customFormat="1">
       <c r="A18" s="3">
         <v>1004002</v>
       </c>
@@ -2103,24 +1980,24 @@
       <c r="I18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="3">
-        <v>1</v>
+      <c r="J18" s="5"/>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
+        <v>2</v>
       </c>
       <c r="N18" s="3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1</v>
       </c>
       <c r="P18" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>1</v>
-      </c>
-      <c r="R18" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="3" customFormat="1">
       <c r="A19" s="3">
         <v>1004003</v>
       </c>
@@ -2145,24 +2022,24 @@
       <c r="I19" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="3">
-        <v>1</v>
+      <c r="J19" s="5"/>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>3</v>
       </c>
       <c r="N19" s="3">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1</v>
       </c>
       <c r="P19" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>1</v>
-      </c>
-      <c r="R19" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="3" customFormat="1">
       <c r="A20" s="3">
         <v>1004004</v>
       </c>
@@ -2187,24 +2064,24 @@
       <c r="I20" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="3">
-        <v>1</v>
+      <c r="J20" s="5"/>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>4</v>
       </c>
       <c r="N20" s="3">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1</v>
       </c>
       <c r="P20" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>1</v>
-      </c>
-      <c r="R20" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="3" customFormat="1">
       <c r="A21" s="3">
         <v>1004005</v>
       </c>
@@ -2229,24 +2106,24 @@
       <c r="I21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="3">
-        <v>1</v>
+      <c r="J21" s="5"/>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
+        <v>5</v>
       </c>
       <c r="N21" s="3">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="O21" s="3">
+        <v>1</v>
       </c>
       <c r="P21" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>1</v>
-      </c>
-      <c r="R21" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="3" customFormat="1">
       <c r="A22" s="3">
         <v>1005001</v>
       </c>
@@ -2271,24 +2148,24 @@
       <c r="I22" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="3">
+      <c r="J22" s="4"/>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3">
         <v>1</v>
       </c>
       <c r="N22" s="3">
         <v>1</v>
       </c>
+      <c r="O22" s="3">
+        <v>1</v>
+      </c>
       <c r="P22" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>1</v>
-      </c>
-      <c r="R22" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="3" customFormat="1">
       <c r="A23" s="3">
         <v>1005002</v>
       </c>
@@ -2313,24 +2190,24 @@
       <c r="I23" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="3">
-        <v>1</v>
+      <c r="J23" s="5"/>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3">
+        <v>2</v>
       </c>
       <c r="N23" s="3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1</v>
       </c>
       <c r="P23" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1</v>
-      </c>
-      <c r="R23" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="3" customFormat="1">
       <c r="A24" s="3">
         <v>1005003</v>
       </c>
@@ -2355,24 +2232,24 @@
       <c r="I24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="3">
-        <v>1</v>
+      <c r="J24" s="5"/>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1</v>
       </c>
       <c r="P24" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>1</v>
-      </c>
-      <c r="R24" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="3" customFormat="1">
       <c r="A25" s="3">
         <v>1005004</v>
       </c>
@@ -2397,24 +2274,24 @@
       <c r="I25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="3">
-        <v>1</v>
+      <c r="J25" s="5"/>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3">
+        <v>4</v>
       </c>
       <c r="N25" s="3">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="O25" s="3">
+        <v>1</v>
       </c>
       <c r="P25" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>1</v>
-      </c>
-      <c r="R25" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="3" customFormat="1">
       <c r="A26" s="3">
         <v>1005005</v>
       </c>
@@ -2439,24 +2316,24 @@
       <c r="I26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="3">
-        <v>1</v>
+      <c r="J26" s="5"/>
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3">
+        <v>5</v>
       </c>
       <c r="N26" s="3">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1</v>
       </c>
       <c r="P26" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>1</v>
-      </c>
-      <c r="R26" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="3" customFormat="1">
       <c r="A27" s="3">
         <v>1006001</v>
       </c>
@@ -2481,24 +2358,24 @@
       <c r="I27" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="3">
+      <c r="J27" s="5"/>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3">
         <v>1</v>
       </c>
       <c r="N27" s="3">
         <v>1</v>
       </c>
+      <c r="O27" s="3">
+        <v>1</v>
+      </c>
       <c r="P27" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>1</v>
-      </c>
-      <c r="R27" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="3" customFormat="1">
       <c r="A28" s="3">
         <v>1006002</v>
       </c>
@@ -2523,24 +2400,24 @@
       <c r="I28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="3">
-        <v>1</v>
+      <c r="J28" s="5"/>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3">
+        <v>2</v>
       </c>
       <c r="N28" s="3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1</v>
       </c>
       <c r="P28" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>1</v>
-      </c>
-      <c r="R28" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="3" customFormat="1">
       <c r="A29" s="3">
         <v>1006003</v>
       </c>
@@ -2565,24 +2442,24 @@
       <c r="I29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="3">
-        <v>1</v>
+      <c r="J29" s="5"/>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3">
+        <v>3</v>
       </c>
       <c r="N29" s="3">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="O29" s="3">
+        <v>1</v>
       </c>
       <c r="P29" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>1</v>
-      </c>
-      <c r="R29" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="3" customFormat="1">
       <c r="A30" s="3">
         <v>1006004</v>
       </c>
@@ -2607,24 +2484,24 @@
       <c r="I30" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="3">
-        <v>1</v>
+      <c r="J30" s="5"/>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3">
+        <v>4</v>
       </c>
       <c r="N30" s="3">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1</v>
       </c>
       <c r="P30" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>1</v>
-      </c>
-      <c r="R30" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="3" customFormat="1">
       <c r="A31" s="3">
         <v>1006005</v>
       </c>
@@ -2649,24 +2526,24 @@
       <c r="I31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="3">
-        <v>1</v>
+      <c r="J31" s="5"/>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+      <c r="L31" s="3">
+        <v>5</v>
       </c>
       <c r="N31" s="3">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="O31" s="3">
+        <v>1</v>
       </c>
       <c r="P31" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>1</v>
-      </c>
-      <c r="R31" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="3" customFormat="1">
       <c r="A32" s="3">
         <v>2001001</v>
       </c>
@@ -2691,24 +2568,24 @@
       <c r="I32" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L32" s="6"/>
-      <c r="M32" s="3">
+      <c r="J32" s="5"/>
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3">
         <v>1</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>1</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>1</v>
-      </c>
-      <c r="R32" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="3" customFormat="1">
       <c r="A33" s="3">
         <v>2001002</v>
       </c>
@@ -2733,24 +2610,24 @@
       <c r="I33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L33" s="6"/>
-      <c r="M33" s="3">
-        <v>1</v>
+      <c r="J33" s="5"/>
+      <c r="K33" s="3">
+        <v>1</v>
+      </c>
+      <c r="L33" s="3">
+        <v>2</v>
       </c>
       <c r="N33" s="3">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>1</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>1</v>
-      </c>
-      <c r="R33" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="3" customFormat="1">
       <c r="A34" s="3">
         <v>2001003</v>
       </c>
@@ -2775,24 +2652,24 @@
       <c r="I34" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="3">
-        <v>1</v>
+      <c r="J34" s="5"/>
+      <c r="K34" s="3">
+        <v>1</v>
+      </c>
+      <c r="L34" s="3">
+        <v>3</v>
       </c>
       <c r="N34" s="3">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>1</v>
       </c>
       <c r="P34" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>1</v>
-      </c>
-      <c r="R34" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="3" customFormat="1">
       <c r="A35" s="3">
         <v>2001004</v>
       </c>
@@ -2817,24 +2694,24 @@
       <c r="I35" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="3">
-        <v>1</v>
+      <c r="J35" s="5"/>
+      <c r="K35" s="3">
+        <v>1</v>
+      </c>
+      <c r="L35" s="3">
+        <v>4</v>
       </c>
       <c r="N35" s="3">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>1</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>1</v>
-      </c>
-      <c r="R35" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="3" customFormat="1">
       <c r="A36" s="3">
         <v>2001005</v>
       </c>
@@ -2859,24 +2736,24 @@
       <c r="I36" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="3">
-        <v>1</v>
+      <c r="J36" s="5"/>
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+      <c r="L36" s="3">
+        <v>5</v>
       </c>
       <c r="N36" s="3">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="O36" s="3">
+        <v>1</v>
       </c>
       <c r="P36" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>1</v>
-      </c>
-      <c r="R36" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="3" customFormat="1">
       <c r="A37" s="3">
         <v>3001001</v>
       </c>
@@ -2901,24 +2778,24 @@
       <c r="I37" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L37" s="6"/>
-      <c r="M37" s="3">
+      <c r="J37" s="5"/>
+      <c r="K37" s="3">
+        <v>1</v>
+      </c>
+      <c r="L37" s="3">
         <v>1</v>
       </c>
       <c r="N37" s="3">
         <v>1</v>
       </c>
+      <c r="O37" s="3">
+        <v>1</v>
+      </c>
       <c r="P37" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>1</v>
-      </c>
-      <c r="R37" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="3" customFormat="1">
       <c r="A38" s="3">
         <v>3002001</v>
       </c>
@@ -2943,24 +2820,24 @@
       <c r="I38" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L38" s="6"/>
-      <c r="M38" s="3">
+      <c r="J38" s="5"/>
+      <c r="K38" s="3">
+        <v>1</v>
+      </c>
+      <c r="L38" s="3">
         <v>1</v>
       </c>
       <c r="N38" s="3">
         <v>1</v>
       </c>
+      <c r="O38" s="3">
+        <v>1</v>
+      </c>
       <c r="P38" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>1</v>
-      </c>
-      <c r="R38" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="3" customFormat="1">
       <c r="A39" s="3">
         <v>3003001</v>
       </c>
@@ -2985,24 +2862,24 @@
       <c r="I39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L39" s="6"/>
-      <c r="M39" s="3">
+      <c r="J39" s="5"/>
+      <c r="K39" s="3">
+        <v>1</v>
+      </c>
+      <c r="L39" s="3">
         <v>1</v>
       </c>
       <c r="N39" s="3">
         <v>1</v>
       </c>
+      <c r="O39" s="3">
+        <v>1</v>
+      </c>
       <c r="P39" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>1</v>
-      </c>
-      <c r="R39" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="3" customFormat="1">
       <c r="A40" s="3">
         <v>3004001</v>
       </c>
@@ -3027,24 +2904,24 @@
       <c r="I40" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L40" s="6"/>
-      <c r="M40" s="3">
+      <c r="J40" s="5"/>
+      <c r="K40" s="3">
+        <v>1</v>
+      </c>
+      <c r="L40" s="3">
         <v>1</v>
       </c>
       <c r="N40" s="3">
         <v>1</v>
       </c>
+      <c r="O40" s="3">
+        <v>1</v>
+      </c>
       <c r="P40" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>1</v>
-      </c>
-      <c r="R40" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="3" customFormat="1">
       <c r="A41" s="3">
         <v>3005001</v>
       </c>
@@ -3069,24 +2946,24 @@
       <c r="I41" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L41" s="6"/>
-      <c r="M41" s="3">
+      <c r="J41" s="5"/>
+      <c r="K41" s="3">
+        <v>1</v>
+      </c>
+      <c r="L41" s="3">
         <v>1</v>
       </c>
       <c r="N41" s="3">
         <v>1</v>
       </c>
+      <c r="O41" s="3">
+        <v>1</v>
+      </c>
       <c r="P41" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>1</v>
-      </c>
-      <c r="R41" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="1">
         <v>4001001</v>
       </c>
@@ -3114,30 +2991,24 @@
       <c r="I42" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J42" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="L42" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/parts/4001001</v>
-      </c>
-      <c r="M42" s="1">
+      <c r="J42" s="5"/>
+      <c r="K42" s="1">
+        <v>1</v>
+      </c>
+      <c r="L42" s="1">
         <v>1</v>
       </c>
       <c r="N42" s="1">
         <v>1</v>
       </c>
+      <c r="O42" s="1">
+        <v>1</v>
+      </c>
       <c r="P42" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>1</v>
-      </c>
-      <c r="R42" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="1">
         <v>4002001</v>
       </c>
@@ -3165,30 +3036,24 @@
       <c r="I43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J43" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="L43" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/parts/4002001</v>
-      </c>
-      <c r="M43" s="1">
+      <c r="J43" s="5"/>
+      <c r="K43" s="1">
+        <v>1</v>
+      </c>
+      <c r="L43" s="1">
         <v>1</v>
       </c>
       <c r="N43" s="1">
         <v>1</v>
       </c>
+      <c r="O43" s="1">
+        <v>1</v>
+      </c>
       <c r="P43" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>1</v>
-      </c>
-      <c r="R43" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="1">
         <v>4003001</v>
       </c>
@@ -3216,30 +3081,24 @@
       <c r="I44" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J44" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="L44" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/parts/4003001</v>
-      </c>
-      <c r="M44" s="1">
+      <c r="J44" s="5"/>
+      <c r="K44" s="1">
+        <v>1</v>
+      </c>
+      <c r="L44" s="1">
         <v>1</v>
       </c>
       <c r="N44" s="1">
         <v>1</v>
       </c>
+      <c r="O44" s="1">
+        <v>1</v>
+      </c>
       <c r="P44" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>1</v>
-      </c>
-      <c r="R44" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" s="1">
         <v>4004001</v>
       </c>
@@ -3267,30 +3126,24 @@
       <c r="I45" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J45" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="L45" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/parts/4004001</v>
-      </c>
-      <c r="M45" s="1">
+      <c r="J45" s="5"/>
+      <c r="K45" s="1">
+        <v>1</v>
+      </c>
+      <c r="L45" s="1">
         <v>1</v>
       </c>
       <c r="N45" s="1">
         <v>1</v>
       </c>
+      <c r="O45" s="1">
+        <v>1</v>
+      </c>
       <c r="P45" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="1">
-        <v>1</v>
-      </c>
-      <c r="R45" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" s="1">
         <v>4005001</v>
       </c>
@@ -3318,30 +3171,24 @@
       <c r="I46" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J46" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="L46" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/parts/4005001</v>
-      </c>
-      <c r="M46" s="1">
+      <c r="J46" s="5"/>
+      <c r="K46" s="1">
+        <v>1</v>
+      </c>
+      <c r="L46" s="1">
         <v>1</v>
       </c>
       <c r="N46" s="1">
         <v>1</v>
       </c>
+      <c r="O46" s="1">
+        <v>1</v>
+      </c>
       <c r="P46" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="1">
-        <v>1</v>
-      </c>
-      <c r="R46" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" s="1">
         <v>4006001</v>
       </c>
@@ -3369,30 +3216,24 @@
       <c r="I47" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J47" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="L47" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/parts/4006001</v>
-      </c>
-      <c r="M47" s="1">
+      <c r="J47" s="5"/>
+      <c r="K47" s="1">
+        <v>1</v>
+      </c>
+      <c r="L47" s="1">
         <v>1</v>
       </c>
       <c r="N47" s="1">
         <v>1</v>
       </c>
+      <c r="O47" s="1">
+        <v>1</v>
+      </c>
       <c r="P47" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="1">
-        <v>1</v>
-      </c>
-      <c r="R47" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="1">
         <v>4007001</v>
       </c>
@@ -3420,30 +3261,24 @@
       <c r="I48" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J48" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="L48" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/parts/4007001</v>
-      </c>
-      <c r="M48" s="1">
+      <c r="J48" s="5"/>
+      <c r="K48" s="1">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1">
         <v>1</v>
       </c>
       <c r="N48" s="1">
         <v>1</v>
       </c>
+      <c r="O48" s="1">
+        <v>1</v>
+      </c>
       <c r="P48" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="1">
-        <v>1</v>
-      </c>
-      <c r="R48" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="1">
         <v>4008001</v>
       </c>
@@ -3471,30 +3306,24 @@
       <c r="I49" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J49" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="L49" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/parts/4008001</v>
-      </c>
-      <c r="M49" s="1">
+      <c r="J49" s="5"/>
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1">
         <v>1</v>
       </c>
       <c r="N49" s="1">
         <v>1</v>
       </c>
+      <c r="O49" s="1">
+        <v>1</v>
+      </c>
       <c r="P49" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="1">
-        <v>1</v>
-      </c>
-      <c r="R49" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="1">
         <v>4009001</v>
       </c>
@@ -3522,30 +3351,24 @@
       <c r="I50" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J50" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="L50" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/parts/4009001</v>
-      </c>
-      <c r="M50" s="1">
+      <c r="J50" s="5"/>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1">
         <v>1</v>
       </c>
       <c r="N50" s="1">
         <v>1</v>
       </c>
+      <c r="O50" s="1">
+        <v>1</v>
+      </c>
       <c r="P50" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="1">
-        <v>1</v>
-      </c>
-      <c r="R50" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="1">
         <v>4010001</v>
       </c>
@@ -3573,30 +3396,24 @@
       <c r="I51" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J51" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="L51" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/parts/4010001</v>
-      </c>
-      <c r="M51" s="1">
+      <c r="J51" s="5"/>
+      <c r="K51" s="1">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1">
         <v>1</v>
       </c>
       <c r="N51" s="1">
         <v>1</v>
       </c>
+      <c r="O51" s="1">
+        <v>1</v>
+      </c>
       <c r="P51" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>1</v>
-      </c>
-      <c r="R51" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" s="1">
         <v>4011001</v>
       </c>
@@ -3624,30 +3441,24 @@
       <c r="I52" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J52" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="L52" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/parts/4011001</v>
-      </c>
-      <c r="M52" s="1">
+      <c r="J52" s="5"/>
+      <c r="K52" s="1">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1">
         <v>1</v>
       </c>
       <c r="N52" s="1">
         <v>1</v>
       </c>
+      <c r="O52" s="1">
+        <v>1</v>
+      </c>
       <c r="P52" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="1">
-        <v>1</v>
-      </c>
-      <c r="R52" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" s="1">
         <v>4012001</v>
       </c>
@@ -3675,35 +3486,29 @@
       <c r="I53" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J53" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="L53" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/parts/4012001</v>
-      </c>
-      <c r="M53" s="1">
+      <c r="J53" s="5"/>
+      <c r="K53" s="1">
+        <v>1</v>
+      </c>
+      <c r="L53" s="1">
         <v>1</v>
       </c>
       <c r="N53" s="1">
         <v>1</v>
       </c>
+      <c r="O53" s="1">
+        <v>1</v>
+      </c>
       <c r="P53" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="1">
-        <v>1</v>
-      </c>
-      <c r="R53" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" s="1">
         <v>4013001</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>124</v>
@@ -3726,35 +3531,29 @@
       <c r="I54" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J54" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="L54" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/parts/4013001</v>
-      </c>
-      <c r="M54" s="1">
+      <c r="J54" s="5"/>
+      <c r="K54" s="1">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1">
         <v>1</v>
       </c>
       <c r="N54" s="1">
         <v>1</v>
       </c>
+      <c r="O54" s="1">
+        <v>1</v>
+      </c>
       <c r="P54" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="1">
-        <v>1</v>
-      </c>
-      <c r="R54" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" s="1">
         <v>4014001</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>124</v>
@@ -3777,30 +3576,24 @@
       <c r="I55" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J55" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="L55" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/parts/4014001</v>
-      </c>
-      <c r="M55" s="1">
+      <c r="J55" s="5"/>
+      <c r="K55" s="1">
+        <v>1</v>
+      </c>
+      <c r="L55" s="1">
         <v>1</v>
       </c>
       <c r="N55" s="1">
         <v>1</v>
       </c>
+      <c r="O55" s="1">
+        <v>1</v>
+      </c>
       <c r="P55" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="1">
-        <v>1</v>
-      </c>
-      <c r="R55" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" s="1">
         <v>5001001</v>
       </c>
@@ -3828,30 +3621,24 @@
       <c r="I56" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J56" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="L56" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/toys/5001001</v>
-      </c>
-      <c r="M56" s="1">
+      <c r="J56" s="5"/>
+      <c r="K56" s="1">
+        <v>1</v>
+      </c>
+      <c r="L56" s="1">
         <v>1</v>
       </c>
       <c r="N56" s="1">
         <v>1</v>
       </c>
+      <c r="O56" s="1">
+        <v>1</v>
+      </c>
       <c r="P56" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="1">
-        <v>1</v>
-      </c>
-      <c r="R56" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" s="1">
         <v>5002001</v>
       </c>
@@ -3879,30 +3666,24 @@
       <c r="I57" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J57" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="L57" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/toys/5002001</v>
-      </c>
-      <c r="M57" s="1">
+      <c r="J57" s="5"/>
+      <c r="K57" s="1">
+        <v>1</v>
+      </c>
+      <c r="L57" s="1">
         <v>1</v>
       </c>
       <c r="N57" s="1">
         <v>1</v>
       </c>
+      <c r="O57" s="1">
+        <v>1</v>
+      </c>
       <c r="P57" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="1">
-        <v>1</v>
-      </c>
-      <c r="R57" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="13.5" customHeight="1">
       <c r="A58" s="1">
         <v>5003001</v>
       </c>
@@ -3930,30 +3711,24 @@
       <c r="I58" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J58" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="L58" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/toys/5003001</v>
-      </c>
-      <c r="M58" s="1">
+      <c r="J58" s="5"/>
+      <c r="K58" s="1">
+        <v>1</v>
+      </c>
+      <c r="L58" s="1">
         <v>1</v>
       </c>
       <c r="N58" s="1">
         <v>1</v>
       </c>
+      <c r="O58" s="1">
+        <v>1</v>
+      </c>
       <c r="P58" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="1">
-        <v>1</v>
-      </c>
-      <c r="R58" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" s="1">
         <v>5004001</v>
       </c>
@@ -3981,30 +3756,24 @@
       <c r="I59" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J59" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="L59" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/toys/5004001</v>
-      </c>
-      <c r="M59" s="1">
+      <c r="J59" s="5"/>
+      <c r="K59" s="1">
+        <v>1</v>
+      </c>
+      <c r="L59" s="1">
         <v>1</v>
       </c>
       <c r="N59" s="1">
         <v>1</v>
       </c>
+      <c r="O59" s="1">
+        <v>1</v>
+      </c>
       <c r="P59" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="1">
-        <v>1</v>
-      </c>
-      <c r="R59" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" s="1">
         <v>5005001</v>
       </c>
@@ -4032,30 +3801,24 @@
       <c r="I60" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J60" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="L60" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/toys/5005001</v>
-      </c>
-      <c r="M60" s="1">
+      <c r="J60" s="5"/>
+      <c r="K60" s="1">
+        <v>1</v>
+      </c>
+      <c r="L60" s="1">
         <v>1</v>
       </c>
       <c r="N60" s="1">
         <v>1</v>
       </c>
+      <c r="O60" s="1">
+        <v>1</v>
+      </c>
       <c r="P60" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="1">
-        <v>1</v>
-      </c>
-      <c r="R60" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" s="1">
         <v>5006001</v>
       </c>
@@ -4083,30 +3846,24 @@
       <c r="I61" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J61" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="L61" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/toys/5006001</v>
-      </c>
-      <c r="M61" s="1">
+      <c r="J61" s="5"/>
+      <c r="K61" s="1">
+        <v>1</v>
+      </c>
+      <c r="L61" s="1">
         <v>1</v>
       </c>
       <c r="N61" s="1">
         <v>1</v>
       </c>
+      <c r="O61" s="1">
+        <v>1</v>
+      </c>
       <c r="P61" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="1">
-        <v>1</v>
-      </c>
-      <c r="R61" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" s="1">
         <v>5007001</v>
       </c>
@@ -4134,30 +3891,24 @@
       <c r="I62" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J62" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="L62" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/toys/5007001</v>
-      </c>
-      <c r="M62" s="1">
+      <c r="J62" s="5"/>
+      <c r="K62" s="1">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1">
         <v>1</v>
       </c>
       <c r="N62" s="1">
         <v>1</v>
       </c>
+      <c r="O62" s="1">
+        <v>1</v>
+      </c>
       <c r="P62" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="1">
-        <v>1</v>
-      </c>
-      <c r="R62" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" s="1">
         <v>5008001</v>
       </c>
@@ -4185,30 +3936,24 @@
       <c r="I63" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J63" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="L63" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/toys/5008001</v>
-      </c>
-      <c r="M63" s="1">
+      <c r="J63" s="5"/>
+      <c r="K63" s="1">
+        <v>1</v>
+      </c>
+      <c r="L63" s="1">
         <v>1</v>
       </c>
       <c r="N63" s="1">
         <v>1</v>
       </c>
+      <c r="O63" s="1">
+        <v>1</v>
+      </c>
       <c r="P63" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="1">
-        <v>1</v>
-      </c>
-      <c r="R63" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" s="1">
         <v>5009001</v>
       </c>
@@ -4236,30 +3981,24 @@
       <c r="I64" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J64" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="L64" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/toys/5009001</v>
-      </c>
-      <c r="M64" s="1">
+      <c r="J64" s="5"/>
+      <c r="K64" s="1">
+        <v>1</v>
+      </c>
+      <c r="L64" s="1">
         <v>1</v>
       </c>
       <c r="N64" s="1">
         <v>1</v>
       </c>
+      <c r="O64" s="1">
+        <v>1</v>
+      </c>
       <c r="P64" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="1">
-        <v>1</v>
-      </c>
-      <c r="R64" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" s="1">
         <v>5010001</v>
       </c>
@@ -4287,30 +4026,24 @@
       <c r="I65" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J65" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="L65" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/toys/5010001</v>
-      </c>
-      <c r="M65" s="1">
+      <c r="J65" s="5"/>
+      <c r="K65" s="1">
+        <v>1</v>
+      </c>
+      <c r="L65" s="1">
         <v>1</v>
       </c>
       <c r="N65" s="1">
         <v>1</v>
       </c>
+      <c r="O65" s="1">
+        <v>1</v>
+      </c>
       <c r="P65" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="1">
-        <v>1</v>
-      </c>
-      <c r="R65" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" s="1">
         <v>5011001</v>
       </c>
@@ -4338,30 +4071,24 @@
       <c r="I66" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J66" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="L66" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/toys/5011001</v>
-      </c>
-      <c r="M66" s="1">
+      <c r="J66" s="5"/>
+      <c r="K66" s="1">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1">
         <v>1</v>
       </c>
       <c r="N66" s="1">
         <v>1</v>
       </c>
+      <c r="O66" s="1">
+        <v>1</v>
+      </c>
       <c r="P66" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q66" s="1">
-        <v>1</v>
-      </c>
-      <c r="R66" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" s="1">
         <v>5012001</v>
       </c>
@@ -4389,27 +4116,24 @@
       <c r="I67" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J67" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="L67" s="6"/>
-      <c r="M67" s="1">
+      <c r="J67" s="5"/>
+      <c r="K67" s="1">
+        <v>1</v>
+      </c>
+      <c r="L67" s="1">
         <v>1</v>
       </c>
       <c r="N67" s="1">
         <v>1</v>
       </c>
+      <c r="O67" s="1">
+        <v>1</v>
+      </c>
       <c r="P67" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q67" s="1">
-        <v>1</v>
-      </c>
-      <c r="R67" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" s="1">
         <v>5013001</v>
       </c>
@@ -4437,30 +4161,24 @@
       <c r="I68" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J68" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="L68" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/toys/5013001</v>
-      </c>
-      <c r="M68" s="1">
+      <c r="J68" s="5"/>
+      <c r="K68" s="1">
+        <v>1</v>
+      </c>
+      <c r="L68" s="1">
         <v>1</v>
       </c>
       <c r="N68" s="1">
         <v>1</v>
       </c>
+      <c r="O68" s="1">
+        <v>1</v>
+      </c>
       <c r="P68" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="1">
-        <v>1</v>
-      </c>
-      <c r="R68" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" s="1">
         <v>5014001</v>
       </c>
@@ -4488,30 +4206,24 @@
       <c r="I69" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J69" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="L69" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/toys/5014001</v>
-      </c>
-      <c r="M69" s="1">
+      <c r="J69" s="5"/>
+      <c r="K69" s="1">
+        <v>1</v>
+      </c>
+      <c r="L69" s="1">
         <v>1</v>
       </c>
       <c r="N69" s="1">
         <v>1</v>
       </c>
+      <c r="O69" s="1">
+        <v>1</v>
+      </c>
       <c r="P69" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q69" s="1">
-        <v>1</v>
-      </c>
-      <c r="R69" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="1">
         <v>5015001</v>
       </c>
@@ -4539,35 +4251,29 @@
       <c r="I70" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J70" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="L70" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/toys/5015001</v>
-      </c>
-      <c r="M70" s="1">
+      <c r="J70" s="5"/>
+      <c r="K70" s="1">
+        <v>1</v>
+      </c>
+      <c r="L70" s="1">
         <v>1</v>
       </c>
       <c r="N70" s="1">
         <v>1</v>
       </c>
+      <c r="O70" s="1">
+        <v>1</v>
+      </c>
       <c r="P70" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q70" s="1">
-        <v>1</v>
-      </c>
-      <c r="R70" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" s="1">
         <v>5016001</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>126</v>
@@ -4590,35 +4296,29 @@
       <c r="I71" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J71" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="L71" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/toys/5016001</v>
-      </c>
-      <c r="M71" s="1">
+      <c r="J71" s="5"/>
+      <c r="K71" s="1">
+        <v>1</v>
+      </c>
+      <c r="L71" s="1">
         <v>1</v>
       </c>
       <c r="N71" s="1">
         <v>1</v>
       </c>
+      <c r="O71" s="1">
+        <v>1</v>
+      </c>
       <c r="P71" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="1">
-        <v>1</v>
-      </c>
-      <c r="R71" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" s="1">
         <v>5017001</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>126</v>
@@ -4641,35 +4341,29 @@
       <c r="I72" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J72" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="L72" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/toys/5017001</v>
-      </c>
-      <c r="M72" s="1">
+      <c r="J72" s="5"/>
+      <c r="K72" s="1">
+        <v>1</v>
+      </c>
+      <c r="L72" s="1">
         <v>1</v>
       </c>
       <c r="N72" s="1">
         <v>1</v>
       </c>
+      <c r="O72" s="1">
+        <v>1</v>
+      </c>
       <c r="P72" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q72" s="1">
-        <v>1</v>
-      </c>
-      <c r="R72" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" s="1">
         <v>5018001</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>126</v>
@@ -4692,35 +4386,29 @@
       <c r="I73" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J73" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="L73" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/toys/5018001</v>
-      </c>
-      <c r="M73" s="1">
+      <c r="J73" s="5"/>
+      <c r="K73" s="1">
+        <v>1</v>
+      </c>
+      <c r="L73" s="1">
         <v>1</v>
       </c>
       <c r="N73" s="1">
         <v>1</v>
       </c>
+      <c r="O73" s="1">
+        <v>1</v>
+      </c>
       <c r="P73" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q73" s="1">
-        <v>1</v>
-      </c>
-      <c r="R73" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" s="1">
         <v>5019001</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>126</v>
@@ -4743,35 +4431,29 @@
       <c r="I74" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J74" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="L74" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/toys/5019001</v>
-      </c>
-      <c r="M74" s="1">
+      <c r="J74" s="5"/>
+      <c r="K74" s="1">
+        <v>1</v>
+      </c>
+      <c r="L74" s="1">
         <v>1</v>
       </c>
       <c r="N74" s="1">
         <v>1</v>
       </c>
+      <c r="O74" s="1">
+        <v>1</v>
+      </c>
       <c r="P74" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="1">
-        <v>1</v>
-      </c>
-      <c r="R74" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" s="1">
         <v>5020001</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>126</v>
@@ -4794,35 +4476,29 @@
       <c r="I75" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J75" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="L75" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/toys/5020001</v>
-      </c>
-      <c r="M75" s="1">
+      <c r="J75" s="5"/>
+      <c r="K75" s="1">
+        <v>1</v>
+      </c>
+      <c r="L75" s="1">
         <v>1</v>
       </c>
       <c r="N75" s="1">
         <v>1</v>
       </c>
+      <c r="O75" s="1">
+        <v>1</v>
+      </c>
       <c r="P75" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="1">
-        <v>1</v>
-      </c>
-      <c r="R75" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" s="1">
         <v>5021001</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>126</v>
@@ -4845,26 +4521,20 @@
       <c r="I76" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J76" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="L76" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>trash-1313022522/items/toys/5021001</v>
-      </c>
-      <c r="M76" s="1">
+      <c r="J76" s="5"/>
+      <c r="K76" s="1">
+        <v>1</v>
+      </c>
+      <c r="L76" s="1">
         <v>1</v>
       </c>
       <c r="N76" s="1">
         <v>1</v>
       </c>
+      <c r="O76" s="1">
+        <v>1</v>
+      </c>
       <c r="P76" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="1">
-        <v>1</v>
-      </c>
-      <c r="R76" s="1">
         <v>99</v>
       </c>
     </row>
@@ -4883,9 +4553,9 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -4896,7 +4566,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4904,7 +4574,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4912,7 +4582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4920,7 +4590,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4928,17 +4598,17 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4957,14 +4627,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="2"/>
-    <col min="2" max="2" width="65.796875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.06640625" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="65.83203125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4975,7 +4645,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>1001002</v>
       </c>
@@ -4986,7 +4656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>1001003</v>
       </c>
@@ -4997,7 +4667,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>1001004</v>
       </c>
@@ -5008,7 +4678,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>1001004</v>
       </c>
@@ -5033,14 +4703,14 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.06640625" style="2"/>
-    <col min="3" max="3" width="37.19921875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.06640625" style="2"/>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="37.1640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -5051,7 +4721,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5062,7 +4732,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5073,7 +4743,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5084,7 +4754,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5095,7 +4765,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5106,7 +4776,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5117,7 +4787,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5128,7 +4798,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5139,7 +4809,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5150,28 +4820,28 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5186,13 +4856,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC1885C-367E-4A3B-B933-B2240A0F3BF6}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -5209,7 +4879,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5217,7 +4887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5225,7 +4895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5233,7 +4903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5241,7 +4911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>

--- a/files/items.xlsx
+++ b/files/items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bytedance/code/back_end/trash_be/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2DE526-05B9-9F4A-916B-9F69D049E188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EC8A4D-26AE-664E-B149-7B19FB636332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29000" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29000" windowHeight="15680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物品表" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="211">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -682,22 +682,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{1001001*1；4001001*2；4002001*2}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1002001*1；4004001*2；4005001*2；4012001*2}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1003001*1；4006001*1}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1004001*1；4007001*1；4008001*1；4009001*1；4010001*1；4011001*1}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>西瓜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -803,6 +787,138 @@
   </si>
   <si>
     <t>拾取物5%概率提升品阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻布手套=破布手套+线团2+麻布2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷达手套=麻布手套+磁铁2+传感器2+激光笔2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运手套=雷达手套+黄宝石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭霸手套=幸运手套+红绿蓝紫白宝石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑曜石铲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑曜石铲子=小铁铲+黑曜石5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金铲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金铲子=黑曜石铲+黄金2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石铲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石铲=黄金铲+钻石1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼金术士铲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼金术士铲=钻石铲+传奇琥珀10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加重铁锤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加重铁锤=木棰子+铁矿2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气动加重锤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气动加重锤=加重铁锤+锂电池+小型液压杆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>啵啵锤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>啵啵锤=启动加重锤+啵啵芯片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神之锤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神之锤=啵啵锤+被雷劈裂的树+雷神之印</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型麻袋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻布2+绳子3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇皮麻袋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇皮10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘多拉麻袋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘多拉药水1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻袋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法勋章1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1001001:1,4001001:2,4002001:2}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1001002:1,4004001:2,4005001:2,4012001:2}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1001003:1,4006001:1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1001004:1,4007001:1,4008001:1,4009001:1,4010001:1,4011001:1}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1183,7 +1299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -1234,7 +1350,7 @@
         <v>77</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>98</v>
@@ -1495,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -1540,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
@@ -1585,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
@@ -1630,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>20</v>
@@ -2842,7 +2958,7 @@
         <v>3003001</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>118</v>
@@ -2926,7 +3042,7 @@
         <v>3005001</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>118</v>
@@ -3508,7 +3624,7 @@
         <v>4013001</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>124</v>
@@ -3553,7 +3669,7 @@
         <v>4014001</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>124</v>
@@ -3823,7 +3939,7 @@
         <v>5006001</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>126</v>
@@ -3868,7 +3984,7 @@
         <v>5007001</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>126</v>
@@ -3913,7 +4029,7 @@
         <v>5008001</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>126</v>
@@ -3958,7 +4074,7 @@
         <v>5009001</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>126</v>
@@ -4003,7 +4119,7 @@
         <v>5010001</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>126</v>
@@ -4048,7 +4164,7 @@
         <v>5011001</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>126</v>
@@ -4093,7 +4209,7 @@
         <v>5012001</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>126</v>
@@ -4138,7 +4254,7 @@
         <v>5013001</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>126</v>
@@ -4183,7 +4299,7 @@
         <v>5014001</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>126</v>
@@ -4228,7 +4344,7 @@
         <v>5015001</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>126</v>
@@ -4273,7 +4389,7 @@
         <v>5016001</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>126</v>
@@ -4318,7 +4434,7 @@
         <v>5017001</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>126</v>
@@ -4363,7 +4479,7 @@
         <v>5018001</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>126</v>
@@ -4408,7 +4524,7 @@
         <v>5019001</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>126</v>
@@ -4453,7 +4569,7 @@
         <v>5020001</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>126</v>
@@ -4498,7 +4614,7 @@
         <v>5021001</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>126</v>
@@ -4621,72 +4737,232 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B1A1E8-7912-4DC9-AE8A-FFF7EB8B738D}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="65.83203125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1001002</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="2">
+        <v>134</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>1001003</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>135</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="2">
+        <v>99</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>1001004</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="2">
         <v>999</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>1001004</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="2">
+        <v>1001005</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="2">
         <v>9999</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>1002002</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>1002003</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>1002004</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3">
+        <v>1002005</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
+        <v>1003002</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3">
+        <v>1003003</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3">
+        <v>1003004</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
+        <v>1003005</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3">
+        <v>1004002</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3">
+        <v>1004003</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
+        <v>1004004</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3">
+        <v>1004005</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4825,10 +5101,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:3">
